--- a/paper/comparison/444-optimizers-small_iterations.xlsx
+++ b/paper/comparison/444-optimizers-small_iterations.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -625,19 +625,19 @@
         <v>0.6684210526315789</v>
       </c>
       <c r="B10" t="n">
-        <v>2.82</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -645,19 +645,19 @@
         <v>0.6894736842105263</v>
       </c>
       <c r="B11" t="n">
-        <v>1.469387755102041</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.448979591836735</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.469387755102041</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.469387755102041</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1.408163265306122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -665,19 +665,19 @@
         <v>0.7105263157894737</v>
       </c>
       <c r="B12" t="n">
-        <v>1.604166666666667</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>2.224489795918367</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>1.591836734693878</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1.571428571428571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -685,19 +685,19 @@
         <v>0.7315789473684211</v>
       </c>
       <c r="B13" t="n">
-        <v>2.304347826086957</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>2.571428571428572</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1.979591836734694</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>2.020833333333333</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1.553191489361702</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -705,19 +705,19 @@
         <v>0.7526315789473684</v>
       </c>
       <c r="B14" t="n">
-        <v>2.380952380952381</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>3.319148936170213</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>4.170212765957447</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>2.340425531914894</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1.866666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -725,19 +725,19 @@
         <v>0.7736842105263158</v>
       </c>
       <c r="B15" t="n">
-        <v>2.564102564102564</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>4.266666666666667</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>2.232558139534884</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>2.116279069767442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -745,19 +745,19 @@
         <v>0.7947368421052632</v>
       </c>
       <c r="B16" t="n">
-        <v>4.771428571428571</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>3.619047619047619</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>3.404761904761905</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>6.547619047619047</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -765,19 +765,19 @@
         <v>0.8157894736842105</v>
       </c>
       <c r="B17" t="n">
-        <v>8.545454545454545</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>6.736842105263158</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>3.394736842105263</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>6.538461538461538</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>2.916666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -785,19 +785,19 @@
         <v>0.8368421052631578</v>
       </c>
       <c r="B18" t="n">
-        <v>2.538461538461538</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>6.1875</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>5.866666666666666</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>2.793103448275862</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>3.103448275862069</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -805,19 +805,19 @@
         <v>0.8578947368421053</v>
       </c>
       <c r="B19" t="n">
-        <v>7.24</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>10.03333333333333</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>4.857142857142857</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>3.24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -825,19 +825,19 @@
         <v>0.8789473684210527</v>
       </c>
       <c r="B20" t="n">
-        <v>4.125</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>9.714285714285714</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>5.380952380952381</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>4.166666666666667</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>2.875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -845,19 +845,19 @@
         <v>0.9</v>
       </c>
       <c r="B21" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>8.846153846153847</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>3.615384615384615</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>7.583333333333333</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
